--- a/docs/Modèle-audit-SEO.xlsx
+++ b/docs/Modèle-audit-SEO.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t xml:space="preserve">Catégorie</t>
   </si>
@@ -46,10 +46,10 @@
     <t xml:space="preserve">Langue de la page manquante</t>
   </si>
   <si>
-    <t xml:space="preserve">La langue de la page n’est pas précisée. Cela peut nuire aux moteurs de recherche et aux navigateurs pour les personnes ayant un handicape visuelle utilisant un logiciel adapté.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Préciser le langage amènera une meilleurs optimisation des moteurs de recherche et des navigateurs.</t>
+    <t xml:space="preserve">La langue de la page n’est pas précisée. Cela peut nuire aux moteurs de recherche et aux navigateurs pour les personnes ayant un handicap visuel utilisant un logiciel adapté.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Préciser le langage amènera une meilleure optimisation des moteurs de recherche et des navigateurs.</t>
   </si>
   <si>
     <r>
@@ -60,7 +60,8 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Utiliser l’attribut </t>
+      <t xml:space="preserve">Utiliser l’attribut 
+</t>
     </r>
     <r>
       <rPr>
@@ -82,17 +83,267 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> sur l’élément racine de la page .html</t>
+      <t xml:space="preserve"> 
+sur l’élément racine de la page html.</t>
     </r>
   </si>
   <si>
     <t xml:space="preserve">https://www.alsacreations.com/astuce/lire/1151-langue-du-contenu.html</t>
   </si>
   <si>
-    <t xml:space="preserve">Contenu du titre manquant dans la barre de titre (onglet)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le titre de la page est manquant, ce qui peut engendrer un problème aux moteurs de recherche qui ne trouveras pas le site web.</t>
+    <t xml:space="preserve">Accessibilité
++ 
+SEO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Texte en format d’image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le texte inséré en format d’image peut nuire au temps de chargement de la page du site web et ne sera pas indexé par Googlebot.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remplacer le texte inséré en format d’image par un texte écrit directement dans la structure html pour optimiser les performances et le référencement du site web.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Utiliser la balise sémantique </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">« &lt;p&gt;&lt;/p&gt; »
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">pour inscrire du texte.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">https://smartkeyword.io/seo-on-page-images-attribut-alt/#erreurs_image_alt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accessibilité
++
+SEO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taille du texte incorrecte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le texte entourant l’icône est illisible. Googlebot et les autres spiders des moteurs de recherche, peuvent nuire au référencement du site web.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corriger la taille du texte ou le supprimer, si celui-ci n’est pas important.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">« Supprimer »
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">ces contenus qui ne sont pas nécessaires au fonctionnement et à la compréhension du site web.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.l-agenceweb.com/referencement-naturel/comment-optimiser-un-texte-pour-le-seo/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Titre manquant dans la barre de titre (onglet)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le titre de la page est manquant, ce qui peut engendrer un problème aux moteurs de recherche qui ne trouveront pas le site web.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Préciser le titre optimisera le référencement naturel et augmentera considérablement le nombre de visiteurs.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Inscrire le titre de la page html à l’intérieur de la balise sémantique </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">« &lt;title&gt;&lt;/title&gt; ».</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.seoquantum.com/billet/balise-meta/title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niveau de titre ignoré</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Une mauvaise structure peut impacter la qualité du site web, comme un niveau de titre sauté et nuire au fonctionnement d’un logiciel vocal pour les navigateurs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corriger la structure en respectant l’ordre des balises sémantiques des titres.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Modifier la balise
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">« &lt;h3&gt;&lt;/h3&gt; »
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">en
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">« &lt;h2&gt;&lt;/h2&gt; ».</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">https://developer.mozilla.org/fr/docs/Web/HTML/Element/Heading_Elements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optimisation des images</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Une image mal optimisée rend le temps de chargement du site web important.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajuster la taille des images et le poids sont indispensable pour la rapidité du chargement du site web ce qui impact aussi le référencement et permet de générer un trafic supplémentaire par d’autres biais comme Google Images.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">« Redimensionner »
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">les images avant de les ajouter et choisir le format
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">« .webp »
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">qui est le mieux adapté.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.codeur.com/blog/seo-image-google/</t>
   </si>
 </sst>
 </file>
@@ -102,7 +353,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -163,6 +414,12 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -212,7 +469,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -238,6 +495,18 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -326,20 +595,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Z1003"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.30078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="31.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="27.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="59.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="40.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="39.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="29.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="76.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="7" style="1" width="10.57"/>
   </cols>
   <sheetData>
@@ -405,66 +674,148 @@
     </row>
     <row r="3" customFormat="false" ht="84.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="8"/>
+        <v>14</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="4" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E4" s="8"/>
+    <row r="4" customFormat="false" ht="84.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="5" customFormat="false" ht="29.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E5" s="8"/>
+    <row r="5" customFormat="false" ht="84.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="6" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E6" s="8"/>
+    <row r="6" customFormat="false" ht="84.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="7" customFormat="false" ht="29.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E7" s="8"/>
+    <row r="7" customFormat="false" ht="84.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="8" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E8" s="8"/>
+    <row r="8" customFormat="false" ht="29.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E8" s="11"/>
     </row>
-    <row r="9" customFormat="false" ht="29.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E9" s="8"/>
+    <row r="9" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E9" s="11"/>
     </row>
-    <row r="10" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E10" s="8"/>
+    <row r="10" customFormat="false" ht="29.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E10" s="11"/>
     </row>
-    <row r="11" customFormat="false" ht="29.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E11" s="8"/>
+    <row r="11" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E11" s="11"/>
     </row>
     <row r="12" customFormat="false" ht="29.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E12" s="8"/>
+      <c r="E12" s="11"/>
     </row>
     <row r="13" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E13" s="8"/>
+      <c r="E13" s="11"/>
     </row>
-    <row r="14" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E14" s="8"/>
+    <row r="14" customFormat="false" ht="29.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E14" s="11"/>
     </row>
     <row r="15" customFormat="false" ht="29.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E15" s="8"/>
+      <c r="E15" s="11"/>
     </row>
-    <row r="16" customFormat="false" ht="30.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="17" customFormat="false" ht="29.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="18" customFormat="false" ht="30.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="28.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="21" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="22" customFormat="false" ht="29.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E16" s="11"/>
+    </row>
+    <row r="17" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E17" s="11"/>
+    </row>
+    <row r="18" customFormat="false" ht="29.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E18" s="11"/>
+    </row>
+    <row r="19" customFormat="false" ht="30.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="29.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="30.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="28.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="23" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="24" customFormat="false" ht="29.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="25" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="26" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="29.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="29.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1436,9 +1787,17 @@
     <row r="998" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="999" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1000" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1001" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1002" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1003" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" display="https://www.alsacreations.com/astuce/lire/1151-langue-du-contenu.html"/>
+    <hyperlink ref="F3" r:id="rId2" location="erreurs_image_alt" display="https://smartkeyword.io/seo-on-page-images-attribut-alt/#erreurs_image_alt"/>
+    <hyperlink ref="F4" r:id="rId3" display="https://www.l-agenceweb.com/referencement-naturel/comment-optimiser-un-texte-pour-le-seo/"/>
+    <hyperlink ref="F5" r:id="rId4" display="https://www.seoquantum.com/billet/balise-meta/title"/>
+    <hyperlink ref="F6" r:id="rId5" display="https://developer.mozilla.org/fr/docs/Web/HTML/Element/Heading_Elements"/>
+    <hyperlink ref="F7" r:id="rId6" display="https://www.codeur.com/blog/seo-image-google/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
